--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,42 +896,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,42 +956,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,52 +1076,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,52 +1196,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,52 +1256,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,52 +1316,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1376,22 +1376,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1406,52 +1406,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1466,52 +1466,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1526,102 +1526,102 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,52 +1706,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1766,42 +1766,42 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Unknown Error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2177,31 +2177,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2216,52 +2216,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2336,42 +2336,42 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -3026,20 +3026,50 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Not suitable for shooting a 4K video</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7-13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>45</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>SD card write speed is too slow</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>0-6</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,21 +647,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,22 +686,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,42 +896,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Please fly away or land with caution</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,42 +956,42 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Altitude Zone</t>
+          <t>Please fly away or land with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>High wind velocity Fly with caution .</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone Please fly away or land with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Your aircraft is at the boundary of an Altitude Zone</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Critical low battery Recharge promptly .</t>
+          <t>High wind velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,52 +1076,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked Fly with caution .</t>
+          <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Vision sensor(s) blocked</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,52 +1196,52 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass interference Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,52 +1256,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
+          <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Strong Interference Detected</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-14</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,52 +1316,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Be careful when flying long distances</t>
+          <t>Strong Interference Detected</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Be careful when flying long distances</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1376,22 +1376,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1406,52 +1406,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1466,52 +1466,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Aircraft antenna satellite signal searching error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1526,102 +1526,102 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Running Flight Simulator Restart aircraft to take off .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Weak signal Adjust antennas .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,52 +1706,52 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Adjust antennas</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Remote controller signal weak Adjust remote controller antennas .</t>
+          <t>Weak signal Adjust antennas .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Remote controller signal weak</t>
+          <t>Adjust antennas</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1766,42 +1766,42 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Adjust remote controller antennas</t>
+          <t>Remote controller signal weak</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
+          <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-8</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-8</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2177,31 +2177,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GPS module error Restart aircraft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Contact DJI support</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2216,52 +2216,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Large Wind Velocity Fly with caution .</t>
+          <t>GPS module error Restart aircraft .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Large Wind Velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2276,52 +2276,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Large Wind Velocity</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
+          <t>Large Wind Velocity Fly with caution .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Weak signal</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2336,42 +2336,42 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
+          <t>Weak signal</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
+          <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Lightly press it to adjust</t>
+          <t>Make sure the remote controller is facing aircraft and avoid blocking the signal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2396,42 +2396,42 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked</t>
+          <t>Lightly press it to adjust</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
+          <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Remote Controller Right Dial Locked</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -3026,50 +3026,20 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>SD card write speed is too slow</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>45</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0-6</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
